--- a/03_Outputs/all/01_TablasDescriptivas/idx10_juventud_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx10_juventud_vr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.203941126313198</v>
+        <v>2.892788094670477</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.429288399583524</v>
+        <v>2.316285218715922</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.760236396039145</v>
+        <v>1.646905314020701</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.411548532068119</v>
+        <v>1.127356175509725</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.122021380930916</v>
+        <v>1.047919478922423</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.095913342695526</v>
+        <v>0.7878343789074421</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.8188908530268197</v>
+        <v>0.6255334874555057</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.6797618003714815</v>
+        <v>0.5638463936739929</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.5987696367162327</v>
+        <v>0.3728390037000548</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.5864656762291773</v>
+        <v>0.370118340178261</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.3737483858516749</v>
+        <v>0.1756815267807689</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.3604471858311227</v>
+        <v>0.07289258746472876</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -598,14 +598,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.3260366260290277</v>
+        <v>2.892788094670477</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -616,14 +616,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.1638743955799765</v>
+        <v>5.209073313386398</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -634,14 +634,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.06905626273406747</v>
+        <v>6.855978627407099</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>3.203941126313198</v>
+        <v>7.983334802916825</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>5.633229525896722</v>
+        <v>9.031254281839248</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>7.393465921935867</v>
+        <v>9.81908866074669</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>8.805014454003986</v>
+        <v>10.4446221482022</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>9.927035834934902</v>
+        <v>11.00846854187619</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>11.02294917763043</v>
+        <v>11.38130754557624</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.84184003065725</v>
+        <v>11.7514258857545</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>12.52160183102873</v>
+        <v>11.92710741253527</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>13.12037146774496</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -814,14 +814,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B26">
-        <v>13.70683714397414</v>
+        <v>24.1065674555873</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B27">
-        <v>14.08058552982581</v>
+        <v>19.30237682263268</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -850,14 +850,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B28">
-        <v>14.44103271565694</v>
+        <v>13.72421095017251</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -868,14 +868,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B29">
-        <v>14.76706934168597</v>
+        <v>9.394634795914378</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -886,14 +886,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B30">
-        <v>14.93094373726594</v>
+        <v>8.732662324353527</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -904,14 +904,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B31">
-        <v>15.00000000000001</v>
+        <v>6.56528649089535</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>21.35960750875464</v>
+        <v>5.212779062129213</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>16.19525599722348</v>
+        <v>4.698719947283274</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>11.73490930692763</v>
+        <v>3.106991697500457</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>9.410323547120788</v>
+        <v>3.084319501485508</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.480142539539434</v>
+        <v>1.464012723173074</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>7.306088951303499</v>
+        <v>0.6074382288727396</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1030,14 +1030,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B38">
-        <v>5.459272353512128</v>
+        <v>24.1065674555873</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1048,14 +1048,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B39">
-        <v>4.531745335809874</v>
+        <v>43.40894427821998</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B40">
-        <v>3.991797578108216</v>
+        <v>57.13315522839248</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B41">
-        <v>3.90977117486118</v>
+        <v>66.52779002430687</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1102,14 +1102,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B42">
-        <v>2.491655905677831</v>
+        <v>75.26045234866039</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1120,14 +1120,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B43">
-        <v>2.40298123887415</v>
+        <v>81.82573883955574</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1138,14 +1138,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B44">
-        <v>2.173577506860183</v>
+        <v>87.03851790168495</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1156,14 +1156,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B45">
-        <v>1.092495970533176</v>
+        <v>91.73723784896822</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1174,14 +1174,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.4603750848937828</v>
+        <v>94.84422954646868</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>21.35960750875464</v>
+        <v>97.92854904795418</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>37.55486350597813</v>
+        <v>99.39256177112726</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1232,228 +1232,12 @@
         </is>
       </c>
       <c r="B49">
-        <v>49.28977281290575</v>
+        <v>100</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>58.70009636002654</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>66.18023889956596</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>73.48632785086947</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>78.94560020438159</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>83.47734554019148</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>87.46914311829968</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>91.37891429316088</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>93.87057019883871</v>
-      </c>
-      <c r="C57">
-        <v>11</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>96.27355143771287</v>
-      </c>
-      <c r="C58">
-        <v>12</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>98.44712894457305</v>
-      </c>
-      <c r="C59">
-        <v>13</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>99.53962491510622</v>
-      </c>
-      <c r="C60">
-        <v>14</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B61">
-        <v>100</v>
-      </c>
-      <c r="C61">
-        <v>15</v>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t>pca</t>
         </is>
